--- a/src/templates/INCENTIVE_PAYMENT_SHEET.xlsx
+++ b/src/templates/INCENTIVE_PAYMENT_SHEET.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rdc-imr\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6E7851-A65E-4BF0-B1EC-DF71B80EFF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6734E663-3DD5-4750-B5E3-ACD7809AFFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NEFT (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NEFT (2)'!$B$13:$I$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'NEFT (2)'!$A$1:$K$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$13:$I$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1437,6 +1437,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1448,9 +1451,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1512,7 +1512,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1564,7 +1564,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1806,15 +1806,15 @@
     </row>
     <row r="3" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1947,7 +1947,7 @@
       <c r="H14" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="54" t="s">
         <v>231</v>
       </c>
       <c r="K14" s="35"/>
@@ -2779,12 +2779,12 @@
     </row>
     <row r="45" spans="1:11" s="2" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
       <c r="F45" s="28">
         <f>SUM(F14:F43)</f>
         <v>0</v>
@@ -2816,9 +2816,9 @@
       <c r="D47" s="9"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="20"/>
       <c r="K47" s="1"/>
     </row>
